--- a/individual_case_outputs/avey/474.xlsx
+++ b/individual_case_outputs/avey/474.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>mallory weiss tear</t>
+          <t>esophageal varices</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -557,12 +557,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>upper gastrointestinal bleeding</t>
+          <t>esophageal varices</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>upper gastrointestinal bleeding</t>
+          <t>esophageal varices</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -598,7 +598,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>upper gastrointestinal bleeding</t>
+          <t>esophageal varices</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>mallory weiss tear</t>
+          <t>esophageal varices</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>esophageal varices</t>
+          <t>varices ib the stomach</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
